--- a/SUIM/TEST/evaluation_results.xlsx
+++ b/SUIM/TEST/evaluation_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanu\Desktop\Mestrado\2A\1S\VCOM\Assignment_2\SUIM\TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49546CF6-D2C1-43F5-8571-B5D20766EC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA2AD0E-59D1-4E67-8434-E77E00CF3C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F-Score" sheetId="1" r:id="rId1"/>
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,12 +506,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>

--- a/SUIM/TEST/evaluation_results.xlsx
+++ b/SUIM/TEST/evaluation_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanu\Desktop\Mestrado\2A\1S\VCOM\Assignment_2\SUIM\TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA2AD0E-59D1-4E67-8434-E77E00CF3C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A30B44-984B-4B77-9ACD-9A7849F191DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="468" windowWidth="16500" windowHeight="12480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F-Score" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>HD</t>
   </si>
@@ -62,6 +62,69 @@
     <t>87.14 ± 5.13</t>
   </si>
   <si>
+    <t>SUIM-Net_VGG_Noaug1_2</t>
+  </si>
+  <si>
+    <t>69.25 ± 25.82</t>
+  </si>
+  <si>
+    <t>42.71 ± 17.14</t>
+  </si>
+  <si>
+    <t>55.43 ± 25.09</t>
+  </si>
+  <si>
+    <t>42.64 ± 24.13</t>
+  </si>
+  <si>
+    <t>70.10 ± 22.24</t>
+  </si>
+  <si>
+    <t>56.03 ± 12.08</t>
+  </si>
+  <si>
+    <t>SUIM-Net_VGG_Noaug</t>
+  </si>
+  <si>
+    <t>72.33 ± 25.37</t>
+  </si>
+  <si>
+    <t>42.83 ± 20.63</t>
+  </si>
+  <si>
+    <t>54.31 ± 37.81</t>
+  </si>
+  <si>
+    <t>49.20 ± 24.08</t>
+  </si>
+  <si>
+    <t>69.07 ± 22.76</t>
+  </si>
+  <si>
+    <t>57.55 ± 11.38</t>
+  </si>
+  <si>
+    <t>SUIM-Net_VGG_Aug</t>
+  </si>
+  <si>
+    <t>64.21 ± 28.15</t>
+  </si>
+  <si>
+    <t>26.64 ± 13.18</t>
+  </si>
+  <si>
+    <t>49.10 ± 26.08</t>
+  </si>
+  <si>
+    <t>31.63 ± 20.78</t>
+  </si>
+  <si>
+    <t>56.77 ± 26.33</t>
+  </si>
+  <si>
+    <t>45.67 ± 14.41</t>
+  </si>
+  <si>
     <t>84.78 ± 16.83</t>
   </si>
   <si>
@@ -78,6 +141,60 @@
   </si>
   <si>
     <t>84.44 ± 5.21</t>
+  </si>
+  <si>
+    <t>61.37 ± 24.78</t>
+  </si>
+  <si>
+    <t>57.87 ± 24.79</t>
+  </si>
+  <si>
+    <t>54.29 ± 26.92</t>
+  </si>
+  <si>
+    <t>61.87 ± 27.06</t>
+  </si>
+  <si>
+    <t>62.93 ± 23.27</t>
+  </si>
+  <si>
+    <t>59.67 ± 3.18</t>
+  </si>
+  <si>
+    <t>66.10 ± 23.48</t>
+  </si>
+  <si>
+    <t>52.91 ± 27.56</t>
+  </si>
+  <si>
+    <t>52.48 ± 34.17</t>
+  </si>
+  <si>
+    <t>68.97 ± 24.48</t>
+  </si>
+  <si>
+    <t>61.86 ± 24.22</t>
+  </si>
+  <si>
+    <t>60.46 ± 6.74</t>
+  </si>
+  <si>
+    <t>60.31 ± 27.20</t>
+  </si>
+  <si>
+    <t>40.91 ± 24.06</t>
+  </si>
+  <si>
+    <t>48.37 ± 27.02</t>
+  </si>
+  <si>
+    <t>47.83 ± 31.17</t>
+  </si>
+  <si>
+    <t>53.62 ± 28.63</t>
+  </si>
+  <si>
+    <t>50.21 ± 6.47</t>
   </si>
 </sst>
 </file>
@@ -441,17 +558,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -495,6 +611,75 @@
       </c>
       <c r="G2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -504,16 +689,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L5:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -542,22 +726,91 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
